--- a/allrankings.xlsx
+++ b/allrankings.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianeshomefolder/Documents/git/Brute-Force-Grad-College-Rankings-Map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2841CC51-1622-5A4D-AABF-BDB28DE16ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7332D16-CDC6-C84B-B05E-3C7608CA98F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520"/>
+    <workbookView xWindow="8460" yWindow="460" windowWidth="17460" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allrankings" sheetId="1" r:id="rId1"/>
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -1546,10 +1546,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -5491,482 +5493,482 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="B124">
-        <v>-87.621416749999995</v>
+        <v>-118.4439132</v>
       </c>
       <c r="C124">
-        <v>41.879653849999997</v>
+        <v>34.068896850000002</v>
       </c>
       <c r="D124" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E124" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F124" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="G124" t="s">
         <v>145</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>-87.621416749999995</v>
+        <v>-118.4439132</v>
       </c>
       <c r="J124">
-        <v>41.879653849999997</v>
+        <v>34.068896850000002</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="B125">
-        <v>-73.961886440000001</v>
+        <v>-87.621416749999995</v>
       </c>
       <c r="C125">
-        <v>40.808294279999998</v>
+        <v>41.879653849999997</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="G125" t="s">
         <v>145</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>-73.961886440000001</v>
+        <v>-87.621416749999995</v>
       </c>
       <c r="J125">
-        <v>40.808294279999998</v>
+        <v>41.879653849999997</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B126">
-        <v>-77.78810876</v>
+        <v>-71.407692670000003</v>
       </c>
       <c r="C126">
-        <v>42.254484400000003</v>
+        <v>41.825943559999999</v>
       </c>
       <c r="D126" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="F126" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G126" t="s">
         <v>145</v>
       </c>
       <c r="H126">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>-77.78810876</v>
+        <v>-71.407692670000003</v>
       </c>
       <c r="J126">
-        <v>42.254484400000003</v>
+        <v>41.825943559999999</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="B127">
-        <v>-76.621035190000001</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="C127">
-        <v>39.308799880000002</v>
+        <v>40.808294279999998</v>
       </c>
       <c r="D127" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E127" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="G127" t="s">
         <v>145</v>
       </c>
       <c r="H127">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I127">
-        <v>-76.621035190000001</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="J127">
-        <v>39.308799880000002</v>
+        <v>40.808294279999998</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="B128">
-        <v>-73.909928500000007</v>
+        <v>-79.942917300000005</v>
       </c>
       <c r="C128">
-        <v>42.020394510000003</v>
+        <v>40.444623970000002</v>
       </c>
       <c r="D128" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="E128" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F128" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="G128" t="s">
         <v>145</v>
       </c>
       <c r="H128">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I128">
-        <v>-73.909928500000007</v>
+        <v>-79.942917300000005</v>
       </c>
       <c r="J128">
-        <v>42.020394510000003</v>
+        <v>40.444623970000002</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B129">
-        <v>-122.3994642</v>
+        <v>-83.251244499999999</v>
       </c>
       <c r="C129">
-        <v>37.767489939999997</v>
+        <v>42.568724209999999</v>
       </c>
       <c r="D129" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="E129" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G129" t="s">
         <v>145</v>
       </c>
       <c r="H129">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I129">
-        <v>-122.3994642</v>
+        <v>-83.251244499999999</v>
       </c>
       <c r="J129">
-        <v>37.767489939999997</v>
+        <v>42.568724209999999</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="B130">
-        <v>-122.1644471</v>
+        <v>-77.78810876</v>
       </c>
       <c r="C130">
-        <v>37.429536929999998</v>
+        <v>42.254484400000003</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="G130" t="s">
         <v>145</v>
       </c>
       <c r="H130">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I130">
-        <v>-122.1644471</v>
+        <v>-77.78810876</v>
       </c>
       <c r="J130">
-        <v>37.429536929999998</v>
+        <v>42.254484400000003</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="B131">
-        <v>-89.405362400000001</v>
+        <v>-76.621035190000001</v>
       </c>
       <c r="C131">
-        <v>43.073865949999998</v>
+        <v>39.308799880000002</v>
       </c>
       <c r="D131" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E131" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F131" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="G131" t="s">
         <v>145</v>
       </c>
       <c r="H131">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I131">
-        <v>-89.405362400000001</v>
+        <v>-76.621035190000001</v>
       </c>
       <c r="J131">
-        <v>43.073865949999998</v>
+        <v>39.308799880000002</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="B132">
-        <v>-118.4439132</v>
+        <v>-118.5673153</v>
       </c>
       <c r="C132">
-        <v>34.068896850000002</v>
+        <v>34.39334187</v>
       </c>
       <c r="D132" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="G132" t="s">
         <v>145</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I132">
-        <v>-118.4439132</v>
+        <v>-118.5673153</v>
       </c>
       <c r="J132">
-        <v>34.068896850000002</v>
+        <v>34.39334187</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="B133">
-        <v>-71.407692670000003</v>
+        <v>-90.310610220000001</v>
       </c>
       <c r="C133">
-        <v>41.825943559999999</v>
+        <v>38.647936139999999</v>
       </c>
       <c r="D133" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="E133" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="F133" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="G133" t="s">
         <v>145</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I133">
-        <v>-71.407692670000003</v>
+        <v>-90.310610220000001</v>
       </c>
       <c r="J133">
-        <v>41.825943559999999</v>
+        <v>38.647936139999999</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="B134">
-        <v>-79.942917300000005</v>
+        <v>-73.909928500000007</v>
       </c>
       <c r="C134">
-        <v>40.444623970000002</v>
+        <v>42.020394510000003</v>
       </c>
       <c r="D134" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F134" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="G134" t="s">
         <v>145</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I134">
-        <v>-79.942917300000005</v>
+        <v>-73.909928500000007</v>
       </c>
       <c r="J134">
-        <v>40.444623970000002</v>
+        <v>42.020394510000003</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B135">
-        <v>-83.251244499999999</v>
+        <v>-117.2378049</v>
       </c>
       <c r="C135">
-        <v>42.568724209999999</v>
+        <v>32.876602779999999</v>
       </c>
       <c r="D135" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E135" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="G135" t="s">
         <v>145</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I135">
-        <v>-83.251244499999999</v>
+        <v>-117.2378049</v>
       </c>
       <c r="J135">
-        <v>42.568724209999999</v>
+        <v>32.876602779999999</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B136">
-        <v>-118.5673153</v>
+        <v>-122.3994642</v>
       </c>
       <c r="C136">
-        <v>34.39334187</v>
+        <v>37.767489939999997</v>
       </c>
       <c r="D136" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="E136" t="s">
         <v>16</v>
       </c>
       <c r="F136" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G136" t="s">
         <v>145</v>
       </c>
       <c r="H136">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I136">
-        <v>-118.5673153</v>
+        <v>-122.3994642</v>
       </c>
       <c r="J136">
-        <v>34.39334187</v>
+        <v>37.767489939999997</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B137">
-        <v>-90.310610220000001</v>
+        <v>-122.1644471</v>
       </c>
       <c r="C137">
-        <v>38.647936139999999</v>
+        <v>37.429536929999998</v>
       </c>
       <c r="D137" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="F137" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G137" t="s">
         <v>145</v>
       </c>
       <c r="H137">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I137">
-        <v>-90.310610220000001</v>
+        <v>-122.1644471</v>
       </c>
       <c r="J137">
-        <v>38.647936139999999</v>
+        <v>37.429536929999998</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B138">
-        <v>-117.2378049</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="C138">
-        <v>32.876602779999999</v>
+        <v>43.073865949999998</v>
       </c>
       <c r="D138" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E138" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F138" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="G138" t="s">
         <v>145</v>
       </c>
       <c r="H138">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I138">
-        <v>-117.2378049</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="J138">
-        <v>32.876602779999999</v>
+        <v>43.073865949999998</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -6273,578 +6275,578 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B149">
-        <v>-79.050971739999994</v>
+        <v>-122.31312990000001</v>
       </c>
       <c r="C149">
-        <v>35.911776089999996</v>
+        <v>47.656218619999997</v>
       </c>
       <c r="D149" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F149" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G149" t="s">
         <v>170</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>-79.050971739999994</v>
+        <v>-122.31312990000001</v>
       </c>
       <c r="J149">
-        <v>35.911776089999996</v>
+        <v>47.656218619999997</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B150">
-        <v>-83.742773619999994</v>
+        <v>-79.050971739999994</v>
       </c>
       <c r="C150">
-        <v>42.275929130000002</v>
+        <v>35.911776089999996</v>
       </c>
       <c r="D150" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="G150" t="s">
         <v>170</v>
       </c>
       <c r="H150">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>-83.742773619999994</v>
+        <v>-79.050971739999994</v>
       </c>
       <c r="J150">
-        <v>42.275929130000002</v>
+        <v>35.911776089999996</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B151">
-        <v>-74.446252580000007</v>
+        <v>-76.136977290000004</v>
       </c>
       <c r="C151">
-        <v>40.498777199999999</v>
+        <v>43.040184619999998</v>
       </c>
       <c r="D151" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E151" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="F151" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G151" t="s">
         <v>170</v>
       </c>
       <c r="H151">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I151">
-        <v>-74.446252580000007</v>
+        <v>-76.136977290000004</v>
       </c>
       <c r="J151">
-        <v>40.498777199999999</v>
+        <v>43.040184619999998</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="B152">
-        <v>-86.526909180000004</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="C152">
-        <v>39.16639043</v>
+        <v>42.275929130000002</v>
       </c>
       <c r="D152" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="E152" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
         <v>170</v>
       </c>
       <c r="H152">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I152">
-        <v>-86.526909180000004</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="J152">
-        <v>39.16639043</v>
+        <v>42.275929130000002</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="B153">
-        <v>-75.188746780000002</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="C153">
-        <v>39.954863070000002</v>
+        <v>30.28609522</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E153" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F153" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="G153" t="s">
         <v>170</v>
       </c>
       <c r="H153">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I153">
-        <v>-75.188746780000002</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="J153">
-        <v>39.954863070000002</v>
+        <v>30.28609522</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B154">
-        <v>-71.099967599999999</v>
+        <v>-74.446252580000007</v>
       </c>
       <c r="C154">
-        <v>42.339308670000001</v>
+        <v>40.498777199999999</v>
       </c>
       <c r="D154" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E154" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="F154" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G154" t="s">
         <v>170</v>
       </c>
       <c r="H154">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I154">
-        <v>-71.099967599999999</v>
+        <v>-74.446252580000007</v>
       </c>
       <c r="J154">
-        <v>42.339308670000001</v>
+        <v>40.498777199999999</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="B155">
-        <v>-89.405362400000001</v>
+        <v>-76.944723269999997</v>
       </c>
       <c r="C155">
-        <v>43.073865949999998</v>
+        <v>38.988185809999997</v>
       </c>
       <c r="D155" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="E155" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F155" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="G155" t="s">
         <v>170</v>
       </c>
       <c r="H155">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I155">
-        <v>-89.405362400000001</v>
+        <v>-76.944723269999997</v>
       </c>
       <c r="J155">
-        <v>43.073865949999998</v>
+        <v>38.988185809999997</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B156">
-        <v>-83.925856190000005</v>
+        <v>-86.526909180000004</v>
       </c>
       <c r="C156">
-        <v>35.952088910000001</v>
+        <v>39.16639043</v>
       </c>
       <c r="D156" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E156" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F156" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G156" t="s">
         <v>170</v>
       </c>
       <c r="H156">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I156">
-        <v>-83.925856190000005</v>
+        <v>-86.526909180000004</v>
       </c>
       <c r="J156">
-        <v>35.952088910000001</v>
+        <v>39.16639043</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="B157">
-        <v>-81.342536789999997</v>
+        <v>-79.954695299999997</v>
       </c>
       <c r="C157">
-        <v>41.146661039999998</v>
+        <v>40.444509969999999</v>
       </c>
       <c r="D157" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="E157" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="F157" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="G157" t="s">
         <v>170</v>
       </c>
       <c r="H157">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I157">
-        <v>-81.342536789999997</v>
+        <v>-79.954695299999997</v>
       </c>
       <c r="J157">
-        <v>41.146661039999998</v>
+        <v>40.444509969999999</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="B158">
-        <v>-122.31312990000001</v>
+        <v>-75.188746780000002</v>
       </c>
       <c r="C158">
-        <v>47.656218619999997</v>
+        <v>39.954863070000002</v>
       </c>
       <c r="D158" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E158" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="F158" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="G158" t="s">
         <v>170</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I158">
-        <v>-122.31312990000001</v>
+        <v>-75.188746780000002</v>
       </c>
       <c r="J158">
-        <v>47.656218619999997</v>
+        <v>39.954863070000002</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B159">
-        <v>-76.136977290000004</v>
+        <v>-71.099967599999999</v>
       </c>
       <c r="C159">
-        <v>43.040184619999998</v>
+        <v>42.339308670000001</v>
       </c>
       <c r="D159" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E159" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F159" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G159" t="s">
         <v>170</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I159">
-        <v>-76.136977290000004</v>
+        <v>-71.099967599999999</v>
       </c>
       <c r="J159">
-        <v>43.040184619999998</v>
+        <v>42.339308670000001</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="B160">
-        <v>-97.739298629999993</v>
+        <v>-84.291925019999994</v>
       </c>
       <c r="C160">
-        <v>30.28609522</v>
+        <v>30.44076171</v>
       </c>
       <c r="D160" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E160" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="F160" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="G160" t="s">
         <v>170</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I160">
-        <v>-97.739298629999993</v>
+        <v>-84.291925019999994</v>
       </c>
       <c r="J160">
-        <v>30.28609522</v>
+        <v>30.44076171</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="B161">
-        <v>-76.944723269999997</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="C161">
-        <v>38.988185809999997</v>
+        <v>43.073865949999998</v>
       </c>
       <c r="D161" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="E161" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F161" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="G161" t="s">
         <v>170</v>
       </c>
       <c r="H161">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I161">
-        <v>-76.944723269999997</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="J161">
-        <v>38.988185809999997</v>
+        <v>43.073865949999998</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="B162">
-        <v>-79.954695299999997</v>
+        <v>-118.4439132</v>
       </c>
       <c r="C162">
-        <v>40.444509969999999</v>
+        <v>34.068896850000002</v>
       </c>
       <c r="D162" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E162" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F162" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="G162" t="s">
         <v>170</v>
       </c>
       <c r="H162">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I162">
-        <v>-79.954695299999997</v>
+        <v>-118.4439132</v>
       </c>
       <c r="J162">
-        <v>40.444509969999999</v>
+        <v>34.068896850000002</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B163">
-        <v>-84.291925019999994</v>
+        <v>-87.880493950000002</v>
       </c>
       <c r="C163">
-        <v>30.44076171</v>
+        <v>43.076856040000003</v>
       </c>
       <c r="D163" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E163" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="F163" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G163" t="s">
         <v>170</v>
       </c>
       <c r="H163">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I163">
-        <v>-84.291925019999994</v>
+        <v>-87.880493950000002</v>
       </c>
       <c r="J163">
-        <v>30.44076171</v>
+        <v>43.076856040000003</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="B164">
-        <v>-118.4439132</v>
+        <v>-83.925856190000005</v>
       </c>
       <c r="C164">
-        <v>34.068896850000002</v>
+        <v>35.952088910000001</v>
       </c>
       <c r="D164" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="E164" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F164" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="G164" t="s">
         <v>170</v>
       </c>
       <c r="H164">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I164">
-        <v>-118.4439132</v>
+        <v>-83.925856190000005</v>
       </c>
       <c r="J164">
-        <v>34.068896850000002</v>
+        <v>35.952088910000001</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B165">
-        <v>-87.880493950000002</v>
+        <v>-81.026938229999999</v>
       </c>
       <c r="C165">
-        <v>43.076856040000003</v>
+        <v>33.996794610000002</v>
       </c>
       <c r="D165" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E165" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="F165" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G165" t="s">
         <v>170</v>
       </c>
       <c r="H165">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I165">
-        <v>-87.880493950000002</v>
+        <v>-81.026938229999999</v>
       </c>
       <c r="J165">
-        <v>43.076856040000003</v>
+        <v>33.996794610000002</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B166">
-        <v>-81.026938229999999</v>
+        <v>-81.342536789999997</v>
       </c>
       <c r="C166">
-        <v>33.996794610000002</v>
+        <v>41.146661039999998</v>
       </c>
       <c r="D166" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E166" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="F166" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G166" t="s">
         <v>170</v>
       </c>
       <c r="H166">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I166">
-        <v>-81.026938229999999</v>
+        <v>-81.342536789999997</v>
       </c>
       <c r="J166">
-        <v>33.996794610000002</v>
+        <v>41.146661039999998</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6942,482 +6944,482 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="B170">
-        <v>-71.118313610000001</v>
+        <v>-76.136977290000004</v>
       </c>
       <c r="C170">
-        <v>42.374479669999999</v>
+        <v>43.040184619999998</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="E170" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="G170" t="s">
         <v>197</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>-71.118313610000001</v>
+        <v>-76.136977290000004</v>
       </c>
       <c r="J170">
-        <v>42.374479669999999</v>
+        <v>43.040184619999998</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="B171">
-        <v>-83.374042919999994</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="C171">
-        <v>33.956268520000002</v>
+        <v>42.374479669999999</v>
       </c>
       <c r="D171" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="E171" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="F171" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="G171" t="s">
         <v>197</v>
       </c>
       <c r="H171">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>-83.374042919999994</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="J171">
-        <v>33.956268520000002</v>
+        <v>42.374479669999999</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B172">
-        <v>-73.99726545</v>
+        <v>-118.28418120000001</v>
       </c>
       <c r="C172">
-        <v>40.729460260000003</v>
+        <v>34.021285849999998</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E172" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F172" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G172" t="s">
         <v>197</v>
       </c>
       <c r="H172">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>-73.99726545</v>
+        <v>-118.28418120000001</v>
       </c>
       <c r="J172">
-        <v>40.729460260000003</v>
+        <v>34.021285849999998</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="B173">
-        <v>-83.742773619999994</v>
+        <v>-83.374042919999994</v>
       </c>
       <c r="C173">
-        <v>42.275929130000002</v>
+        <v>33.956268520000002</v>
       </c>
       <c r="D173" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="G173" t="s">
         <v>197</v>
       </c>
       <c r="H173">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I173">
-        <v>-83.742773619999994</v>
+        <v>-83.374042919999994</v>
       </c>
       <c r="J173">
-        <v>42.275929130000002</v>
+        <v>33.956268520000002</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B174">
-        <v>-87.60120173</v>
+        <v>-122.31312990000001</v>
       </c>
       <c r="C174">
-        <v>41.789177840000001</v>
+        <v>47.656218619999997</v>
       </c>
       <c r="D174" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E174" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="G174" t="s">
         <v>197</v>
       </c>
       <c r="H174">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I174">
-        <v>-87.60120173</v>
+        <v>-122.31312990000001</v>
       </c>
       <c r="J174">
-        <v>41.789177840000001</v>
+        <v>47.656218619999997</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B175">
-        <v>-97.739298629999993</v>
+        <v>-73.99726545</v>
       </c>
       <c r="C175">
-        <v>30.28609522</v>
+        <v>40.729460260000003</v>
       </c>
       <c r="D175" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E175" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F175" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G175" t="s">
         <v>197</v>
       </c>
       <c r="H175">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I175">
-        <v>-97.739298629999993</v>
+        <v>-73.99726545</v>
       </c>
       <c r="J175">
-        <v>30.28609522</v>
+        <v>40.729460260000003</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B176">
-        <v>-112.073232</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="C176">
-        <v>33.453435120000002</v>
+        <v>42.275929130000002</v>
       </c>
       <c r="D176" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E176" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
         <v>197</v>
       </c>
       <c r="H176">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I176">
-        <v>-112.073232</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="J176">
-        <v>33.453435120000002</v>
+        <v>42.275929130000002</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="B177">
-        <v>-77.047873300000006</v>
+        <v>-122.2604762</v>
       </c>
       <c r="C177">
-        <v>38.898657790000001</v>
+        <v>37.871922959999999</v>
       </c>
       <c r="D177" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F177" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
         <v>197</v>
       </c>
       <c r="H177">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I177">
-        <v>-77.047873300000006</v>
+        <v>-122.2604762</v>
       </c>
       <c r="J177">
-        <v>38.898657790000001</v>
+        <v>37.871922959999999</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B178">
-        <v>-118.4439132</v>
+        <v>-87.60120173</v>
       </c>
       <c r="C178">
-        <v>34.068896850000002</v>
+        <v>41.789177840000001</v>
       </c>
       <c r="D178" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E178" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G178" t="s">
         <v>197</v>
       </c>
       <c r="H178">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I178">
-        <v>-118.4439132</v>
+        <v>-87.60120173</v>
       </c>
       <c r="J178">
-        <v>34.068896850000002</v>
+        <v>41.789177840000001</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="B179">
-        <v>-76.136977290000004</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="C179">
-        <v>43.040184619999998</v>
+        <v>30.28609522</v>
       </c>
       <c r="D179" t="s">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="E179" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F179" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="G179" t="s">
         <v>197</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I179">
-        <v>-76.136977290000004</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="J179">
-        <v>43.040184619999998</v>
+        <v>30.28609522</v>
       </c>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="B180">
-        <v>-118.28418120000001</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="C180">
-        <v>34.021285849999998</v>
+        <v>40.348740159999998</v>
       </c>
       <c r="D180" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="E180" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="F180" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="G180" t="s">
         <v>197</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I180">
-        <v>-118.28418120000001</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="J180">
-        <v>34.021285849999998</v>
+        <v>40.348740159999998</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B181">
-        <v>-122.31312990000001</v>
+        <v>-93.235359740000007</v>
       </c>
       <c r="C181">
-        <v>47.656218619999997</v>
+        <v>44.977893999999999</v>
       </c>
       <c r="D181" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E181" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F181" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G181" t="s">
         <v>197</v>
       </c>
       <c r="H181">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I181">
-        <v>-122.31312990000001</v>
+        <v>-93.235359740000007</v>
       </c>
       <c r="J181">
-        <v>47.656218619999997</v>
+        <v>44.977893999999999</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B182">
-        <v>-122.2604762</v>
+        <v>-112.073232</v>
       </c>
       <c r="C182">
-        <v>37.871922959999999</v>
+        <v>33.453435120000002</v>
       </c>
       <c r="D182" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E182" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G182" t="s">
         <v>197</v>
       </c>
       <c r="H182">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I182">
-        <v>-122.2604762</v>
+        <v>-112.073232</v>
       </c>
       <c r="J182">
-        <v>37.871922959999999</v>
+        <v>33.453435120000002</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="B183">
-        <v>-74.659366640000002</v>
+        <v>-77.047873300000006</v>
       </c>
       <c r="C183">
-        <v>40.348740159999998</v>
+        <v>38.898657790000001</v>
       </c>
       <c r="D183" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="E183" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="F183" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="G183" t="s">
         <v>197</v>
       </c>
       <c r="H183">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I183">
-        <v>-74.659366640000002</v>
+        <v>-77.047873300000006</v>
       </c>
       <c r="J183">
-        <v>40.348740159999998</v>
+        <v>38.898657790000001</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B184">
-        <v>-93.235359740000007</v>
+        <v>-118.4439132</v>
       </c>
       <c r="C184">
-        <v>44.977893999999999</v>
+        <v>34.068896850000002</v>
       </c>
       <c r="D184" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E184" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F184" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G184" t="s">
         <v>197</v>
       </c>
       <c r="H184">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I184">
-        <v>-93.235359740000007</v>
+        <v>-118.4439132</v>
       </c>
       <c r="J184">
-        <v>44.977893999999999</v>
+        <v>34.068896850000002</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -7614,429 +7616,429 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B191">
-        <v>-71.118313610000001</v>
+        <v>-122.1644471</v>
       </c>
       <c r="C191">
-        <v>42.374479669999999</v>
+        <v>37.429536929999998</v>
       </c>
       <c r="D191" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E191" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G191" t="s">
         <v>202</v>
       </c>
       <c r="H191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>-71.118313610000001</v>
+        <v>-122.1644471</v>
       </c>
       <c r="J191">
-        <v>42.374479669999999</v>
+        <v>37.429536929999998</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="B192">
-        <v>-74.659366640000002</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="C192">
-        <v>40.348740159999998</v>
+        <v>42.374479669999999</v>
       </c>
       <c r="D192" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="E192" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F192" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="G192" t="s">
         <v>202</v>
       </c>
       <c r="H192">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I192">
-        <v>-74.659366640000002</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="J192">
-        <v>40.348740159999998</v>
+        <v>42.374479669999999</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B193">
-        <v>-72.926689139999993</v>
+        <v>-118.12575219999999</v>
       </c>
       <c r="C193">
-        <v>41.311166409999998</v>
+        <v>34.139279870000003</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="E193" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F193" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G193" t="s">
         <v>202</v>
       </c>
       <c r="H193">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I193">
-        <v>-72.926689139999993</v>
+        <v>-118.12575219999999</v>
       </c>
       <c r="J193">
-        <v>41.311166409999998</v>
+        <v>34.139279870000003</v>
       </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B194">
-        <v>-78.937626710000004</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="C194">
-        <v>36.001142119999997</v>
+        <v>40.348740159999998</v>
       </c>
       <c r="D194" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="E194" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="G194" t="s">
         <v>202</v>
       </c>
       <c r="H194">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I194">
-        <v>-78.937626710000004</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="J194">
-        <v>36.001142119999997</v>
+        <v>40.348740159999998</v>
       </c>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="B195">
-        <v>-73.954913439999999</v>
+        <v>-72.926689139999993</v>
       </c>
       <c r="C195">
-        <v>40.76293527</v>
+        <v>41.311166409999998</v>
       </c>
       <c r="D195" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="G195" t="s">
         <v>202</v>
       </c>
       <c r="H195">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I195">
-        <v>-73.954913439999999</v>
+        <v>-72.926689139999993</v>
       </c>
       <c r="J195">
-        <v>40.76293527</v>
+        <v>41.311166409999998</v>
       </c>
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="B196">
-        <v>-90.310610220000001</v>
+        <v>-76.621597190000003</v>
       </c>
       <c r="C196">
-        <v>38.647936139999999</v>
+        <v>39.328984890000001</v>
       </c>
       <c r="D196" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E196" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F196" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="G196" t="s">
         <v>202</v>
       </c>
       <c r="H196">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I196">
-        <v>-90.310610220000001</v>
+        <v>-76.621597190000003</v>
       </c>
       <c r="J196">
-        <v>38.647936139999999</v>
+        <v>39.328984890000001</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B197">
-        <v>-117.2378049</v>
+        <v>-122.4580622</v>
       </c>
       <c r="C197">
-        <v>32.876602779999999</v>
+        <v>37.76274094</v>
       </c>
       <c r="D197" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E197" t="s">
         <v>16</v>
       </c>
       <c r="F197" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G197" t="s">
         <v>202</v>
       </c>
       <c r="H197">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I197">
-        <v>-117.2378049</v>
+        <v>-122.4580622</v>
       </c>
       <c r="J197">
-        <v>32.876602779999999</v>
+        <v>37.76274094</v>
       </c>
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="B198">
-        <v>-121.7519712</v>
+        <v>-78.937626710000004</v>
       </c>
       <c r="C198">
-        <v>38.539900060000001</v>
+        <v>36.001142119999997</v>
       </c>
       <c r="D198" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="E198" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
         <v>202</v>
       </c>
       <c r="H198">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I198">
-        <v>-121.7519712</v>
+        <v>-78.937626710000004</v>
       </c>
       <c r="J198">
-        <v>38.539900060000001</v>
+        <v>36.001142119999997</v>
       </c>
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B199">
-        <v>-122.1644471</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="C199">
-        <v>37.429536929999998</v>
+        <v>42.447208490000001</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E199" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
         <v>202</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I199">
-        <v>-122.1644471</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="J199">
-        <v>37.429536929999998</v>
+        <v>42.447208490000001</v>
       </c>
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="B200">
-        <v>-118.12575219999999</v>
+        <v>-117.242234</v>
       </c>
       <c r="C200">
-        <v>34.139279870000003</v>
+        <v>32.897998000000001</v>
       </c>
       <c r="D200" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E200" t="s">
         <v>16</v>
       </c>
       <c r="F200" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="G200" t="s">
         <v>202</v>
       </c>
       <c r="H200">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I200">
-        <v>-118.12575219999999</v>
+        <v>-117.242234</v>
       </c>
       <c r="J200">
-        <v>34.139279870000003</v>
+        <v>32.897998000000001</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="B201">
-        <v>-76.621597190000003</v>
+        <v>-73.954913439999999</v>
       </c>
       <c r="C201">
-        <v>39.328984890000001</v>
+        <v>40.76293527</v>
       </c>
       <c r="D201" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E201" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="F201" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="G201" t="s">
         <v>202</v>
       </c>
       <c r="H201">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I201">
-        <v>-76.621597190000003</v>
+        <v>-73.954913439999999</v>
       </c>
       <c r="J201">
-        <v>39.328984890000001</v>
+        <v>40.76293527</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="B202">
-        <v>-122.4580622</v>
+        <v>-90.310610220000001</v>
       </c>
       <c r="C202">
-        <v>37.76274094</v>
+        <v>38.647936139999999</v>
       </c>
       <c r="D202" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="E202" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F202" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="G202" t="s">
         <v>202</v>
       </c>
       <c r="H202">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I202">
-        <v>-122.4580622</v>
+        <v>-90.310610220000001</v>
       </c>
       <c r="J202">
-        <v>37.76274094</v>
+        <v>38.647936139999999</v>
       </c>
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B203">
-        <v>-76.483086360000001</v>
+        <v>-87.60120173</v>
       </c>
       <c r="C203">
-        <v>42.447208490000001</v>
+        <v>41.789177840000001</v>
       </c>
       <c r="D203" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E203" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G203" t="s">
         <v>202</v>
       </c>
       <c r="H203">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I203">
-        <v>-76.483086360000001</v>
+        <v>-87.60120173</v>
       </c>
       <c r="J203">
-        <v>42.447208490000001</v>
+        <v>41.789177840000001</v>
       </c>
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="B204">
-        <v>-117.242234</v>
+        <v>-117.2378049</v>
       </c>
       <c r="C204">
-        <v>32.897998000000001</v>
+        <v>32.876602779999999</v>
       </c>
       <c r="D204" t="s">
         <v>106</v>
@@ -8045,83 +8047,83 @@
         <v>16</v>
       </c>
       <c r="F204" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="G204" t="s">
         <v>202</v>
       </c>
       <c r="H204">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I204">
-        <v>-117.242234</v>
+        <v>-117.2378049</v>
       </c>
       <c r="J204">
-        <v>32.897998000000001</v>
+        <v>32.876602779999999</v>
       </c>
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="B205">
-        <v>-87.60120173</v>
+        <v>-73.466781999999995</v>
       </c>
       <c r="C205">
-        <v>41.789177840000001</v>
+        <v>40.857761000000004</v>
       </c>
       <c r="D205" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="E205" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F205" t="s">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="G205" t="s">
         <v>202</v>
       </c>
       <c r="H205">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I205">
-        <v>-87.60120173</v>
+        <v>-73.466781999999995</v>
       </c>
       <c r="J205">
-        <v>41.789177840000001</v>
+        <v>40.857761000000004</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="B206">
-        <v>-73.466781999999995</v>
+        <v>-121.7519712</v>
       </c>
       <c r="C206">
-        <v>40.857761000000004</v>
+        <v>38.539900060000001</v>
       </c>
       <c r="D206" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="E206" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F206" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="G206" t="s">
         <v>202</v>
       </c>
       <c r="H206">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I206">
-        <v>-73.466781999999995</v>
+        <v>-121.7519712</v>
       </c>
       <c r="J206">
-        <v>40.857761000000004</v>
+        <v>38.539900060000001</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -8344,470 +8346,470 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="B214">
-        <v>-117.242234</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="C214">
-        <v>32.897998000000001</v>
+        <v>42.374479669999999</v>
       </c>
       <c r="D214" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E214" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F214" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="G214" t="s">
         <v>208</v>
       </c>
       <c r="H214">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>-117.242234</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="J214">
-        <v>32.897998000000001</v>
+        <v>42.374479669999999</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B215">
-        <v>-73.961886440000001</v>
+        <v>-122.1644471</v>
       </c>
       <c r="C215">
-        <v>40.808294279999998</v>
+        <v>37.429536929999998</v>
       </c>
       <c r="D215" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="E215" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F215" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G215" t="s">
         <v>208</v>
       </c>
       <c r="H215">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>-73.961886440000001</v>
+        <v>-122.1644471</v>
       </c>
       <c r="J215">
-        <v>40.808294279999998</v>
+        <v>37.429536929999998</v>
       </c>
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="B216">
-        <v>-74.659366640000002</v>
+        <v>-117.242234</v>
       </c>
       <c r="C216">
-        <v>40.348740159999998</v>
+        <v>32.897998000000001</v>
       </c>
       <c r="D216" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E216" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="F216" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="G216" t="s">
         <v>208</v>
       </c>
       <c r="H216">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I216">
-        <v>-74.659366640000002</v>
+        <v>-117.242234</v>
       </c>
       <c r="J216">
-        <v>40.348740159999998</v>
+        <v>32.897998000000001</v>
       </c>
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B217">
-        <v>-72.926689139999993</v>
+        <v>-87.679863780000005</v>
       </c>
       <c r="C217">
-        <v>41.311166409999998</v>
+        <v>42.050363879999999</v>
       </c>
       <c r="D217" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E217" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F217" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G217" t="s">
         <v>208</v>
       </c>
       <c r="H217">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I217">
-        <v>-72.926689139999993</v>
+        <v>-87.679863780000005</v>
       </c>
       <c r="J217">
-        <v>41.311166409999998</v>
+        <v>42.050363879999999</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B218">
-        <v>-118.4439132</v>
+        <v>-88.230314759999999</v>
       </c>
       <c r="C218">
-        <v>34.068896850000002</v>
+        <v>40.10887151</v>
       </c>
       <c r="D218" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="E218" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F218" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="G218" t="s">
         <v>208</v>
       </c>
       <c r="H218">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I218">
-        <v>-118.4439132</v>
+        <v>-88.230314759999999</v>
       </c>
       <c r="J218">
-        <v>34.068896850000002</v>
+        <v>40.10887151</v>
       </c>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B219">
-        <v>-79.050971739999994</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="C219">
-        <v>35.911776089999996</v>
+        <v>40.808294279999998</v>
       </c>
       <c r="D219" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F219" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="G219" t="s">
         <v>208</v>
       </c>
       <c r="H219">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I219">
-        <v>-79.050971739999994</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="J219">
-        <v>35.911776089999996</v>
+        <v>40.808294279999998</v>
       </c>
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B220">
-        <v>-75.193911779999993</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="C220">
-        <v>39.950937060000001</v>
+        <v>40.348740159999998</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="E220" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="F220" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="G220" t="s">
         <v>208</v>
       </c>
       <c r="H220">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I220">
-        <v>-75.193911779999993</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="J220">
-        <v>39.950937060000001</v>
+        <v>40.348740159999998</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B221">
-        <v>-71.118313610000001</v>
+        <v>-72.926689139999993</v>
       </c>
       <c r="C221">
-        <v>42.374479669999999</v>
+        <v>41.311166409999998</v>
       </c>
       <c r="D221" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G221" t="s">
         <v>208</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I221">
-        <v>-71.118313610000001</v>
+        <v>-72.926689139999993</v>
       </c>
       <c r="J221">
-        <v>42.374479669999999</v>
+        <v>41.311166409999998</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B222">
-        <v>-122.1644471</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="C222">
-        <v>37.429536929999998</v>
+        <v>42.447208490000001</v>
       </c>
       <c r="D222" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E222" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G222" t="s">
         <v>208</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I222">
-        <v>-122.1644471</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="J222">
-        <v>37.429536929999998</v>
+        <v>42.447208490000001</v>
       </c>
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B223">
-        <v>-87.679863780000005</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="C223">
-        <v>42.050363879999999</v>
+        <v>43.073865949999998</v>
       </c>
       <c r="D223" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E223" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="G223" t="s">
         <v>208</v>
       </c>
       <c r="H223">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I223">
-        <v>-87.679863780000005</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="J223">
-        <v>42.050363879999999</v>
+        <v>43.073865949999998</v>
       </c>
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="B224">
-        <v>-88.230314759999999</v>
+        <v>-87.60120173</v>
       </c>
       <c r="C224">
-        <v>40.10887151</v>
+        <v>41.789177840000001</v>
       </c>
       <c r="D224" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="E224" t="s">
         <v>22</v>
       </c>
       <c r="F224" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="G224" t="s">
         <v>208</v>
       </c>
       <c r="H224">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I224">
-        <v>-88.230314759999999</v>
+        <v>-87.60120173</v>
       </c>
       <c r="J224">
-        <v>40.10887151</v>
+        <v>41.789177840000001</v>
       </c>
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B225">
-        <v>-76.483086360000001</v>
+        <v>-118.4439132</v>
       </c>
       <c r="C225">
-        <v>42.447208490000001</v>
+        <v>34.068896850000002</v>
       </c>
       <c r="D225" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E225" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G225" t="s">
         <v>208</v>
       </c>
       <c r="H225">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I225">
-        <v>-76.483086360000001</v>
+        <v>-118.4439132</v>
       </c>
       <c r="J225">
-        <v>42.447208490000001</v>
+        <v>34.068896850000002</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B226">
-        <v>-89.405362400000001</v>
+        <v>-79.050971739999994</v>
       </c>
       <c r="C226">
-        <v>43.073865949999998</v>
+        <v>35.911776089999996</v>
       </c>
       <c r="D226" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E226" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F226" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G226" t="s">
         <v>208</v>
       </c>
       <c r="H226">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I226">
-        <v>-89.405362400000001</v>
+        <v>-79.050971739999994</v>
       </c>
       <c r="J226">
-        <v>43.073865949999998</v>
+        <v>35.911776089999996</v>
       </c>
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B227">
-        <v>-87.60120173</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="C227">
-        <v>41.789177840000001</v>
+        <v>42.275929130000002</v>
       </c>
       <c r="D227" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E227" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F227" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
         <v>208</v>
       </c>
       <c r="H227">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I227">
-        <v>-87.60120173</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="J227">
-        <v>41.789177840000001</v>
+        <v>42.275929130000002</v>
       </c>
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B228">
-        <v>-83.742773619999994</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="C228">
-        <v>42.275929130000002</v>
+        <v>30.28609522</v>
       </c>
       <c r="D228" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E228" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G228" t="s">
         <v>208</v>
@@ -8816,42 +8818,42 @@
         <v>15</v>
       </c>
       <c r="I228">
-        <v>-83.742773619999994</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="J228">
-        <v>42.275929130000002</v>
+        <v>30.28609522</v>
       </c>
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B229">
-        <v>-97.739298629999993</v>
+        <v>-75.193911779999993</v>
       </c>
       <c r="C229">
-        <v>30.28609522</v>
+        <v>39.950937060000001</v>
       </c>
       <c r="D229" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E229" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F229" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G229" t="s">
         <v>208</v>
       </c>
       <c r="H229">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I229">
-        <v>-97.739298629999993</v>
+        <v>-75.193911779999993</v>
       </c>
       <c r="J229">
-        <v>30.28609522</v>
+        <v>39.950937060000001</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -9039,502 +9041,502 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B236">
-        <v>-88.230314759999999</v>
+        <v>-71.0921156</v>
       </c>
       <c r="C236">
-        <v>40.10887151</v>
+        <v>42.360103670000001</v>
       </c>
       <c r="D236" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E236" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F236" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="G236" t="s">
         <v>213</v>
       </c>
       <c r="H236">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>-88.230314759999999</v>
+        <v>-71.0921156</v>
       </c>
       <c r="J236">
-        <v>40.10887151</v>
+        <v>42.360103670000001</v>
       </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B237">
-        <v>-122.31312990000001</v>
+        <v>-122.2604762</v>
       </c>
       <c r="C237">
-        <v>47.656218619999997</v>
+        <v>37.871922959999999</v>
       </c>
       <c r="D237" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E237" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="F237" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G237" t="s">
         <v>213</v>
       </c>
       <c r="H237">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>-122.31312990000001</v>
+        <v>-122.2604762</v>
       </c>
       <c r="J237">
-        <v>47.656218619999997</v>
+        <v>37.871922959999999</v>
       </c>
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B238">
-        <v>-74.659366640000002</v>
+        <v>-88.230314759999999</v>
       </c>
       <c r="C238">
-        <v>40.348740159999998</v>
+        <v>40.10887151</v>
       </c>
       <c r="D238" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E238" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="F238" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G238" t="s">
         <v>213</v>
       </c>
       <c r="H238">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I238">
-        <v>-74.659366640000002</v>
+        <v>-88.230314759999999</v>
       </c>
       <c r="J238">
-        <v>40.348740159999998</v>
+        <v>40.10887151</v>
       </c>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B239">
-        <v>-118.12575219999999</v>
+        <v>-122.31312990000001</v>
       </c>
       <c r="C239">
-        <v>34.139279870000003</v>
+        <v>47.656218619999997</v>
       </c>
       <c r="D239" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E239" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F239" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G239" t="s">
         <v>213</v>
       </c>
       <c r="H239">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I239">
-        <v>-118.12575219999999</v>
+        <v>-122.31312990000001</v>
       </c>
       <c r="J239">
-        <v>34.139279870000003</v>
+        <v>47.656218619999997</v>
       </c>
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B240">
-        <v>-73.961886440000001</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="C240">
-        <v>40.808294279999998</v>
+        <v>42.447208490000001</v>
       </c>
       <c r="D240" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="E240" t="s">
         <v>25</v>
       </c>
       <c r="F240" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
         <v>213</v>
       </c>
       <c r="H240">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I240">
-        <v>-73.961886440000001</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="J240">
-        <v>40.808294279999998</v>
+        <v>42.447208490000001</v>
       </c>
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B241">
-        <v>-89.405362400000001</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="C241">
-        <v>43.073865949999998</v>
+        <v>40.348740159999998</v>
       </c>
       <c r="D241" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E241" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="F241" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="G241" t="s">
         <v>213</v>
       </c>
       <c r="H241">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I241">
-        <v>-89.405362400000001</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="J241">
-        <v>43.073865949999998</v>
+        <v>40.348740159999998</v>
       </c>
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B242">
-        <v>-117.2378049</v>
+        <v>-84.394836209999994</v>
       </c>
       <c r="C242">
-        <v>32.876602779999999</v>
+        <v>33.772426439999997</v>
       </c>
       <c r="D242" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E242" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="F242" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G242" t="s">
         <v>213</v>
       </c>
       <c r="H242">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I242">
-        <v>-117.2378049</v>
+        <v>-84.394836209999994</v>
       </c>
       <c r="J242">
-        <v>32.876602779999999</v>
+        <v>33.772426439999997</v>
       </c>
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B243">
-        <v>-75.193911779999993</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="C243">
-        <v>39.950937060000001</v>
+        <v>30.28609522</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E243" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F243" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G243" t="s">
         <v>213</v>
       </c>
       <c r="H243">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I243">
-        <v>-75.193911779999993</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="J243">
-        <v>39.950937060000001</v>
+        <v>30.28609522</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B244">
-        <v>-71.0921156</v>
+        <v>-118.12575219999999</v>
       </c>
       <c r="C244">
-        <v>42.360103670000001</v>
+        <v>34.139279870000003</v>
       </c>
       <c r="D244" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E244" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F244" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="G244" t="s">
         <v>213</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I244">
-        <v>-71.0921156</v>
+        <v>-118.12575219999999</v>
       </c>
       <c r="J244">
-        <v>42.360103670000001</v>
+        <v>34.139279870000003</v>
       </c>
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B245">
-        <v>-122.2604762</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="C245">
-        <v>37.871922959999999</v>
+        <v>42.275929130000002</v>
       </c>
       <c r="D245" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E245" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G245" t="s">
         <v>213</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I245">
-        <v>-122.2604762</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="J245">
-        <v>37.871922959999999</v>
+        <v>42.275929130000002</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B246">
-        <v>-76.483086360000001</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="C246">
-        <v>42.447208490000001</v>
+        <v>40.808294279999998</v>
       </c>
       <c r="D246" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="E246" t="s">
         <v>25</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G246" t="s">
         <v>213</v>
       </c>
       <c r="H246">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I246">
-        <v>-76.483086360000001</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="J246">
-        <v>42.447208490000001</v>
+        <v>40.808294279999998</v>
       </c>
     </row>
     <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B247">
-        <v>-84.394836209999994</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="C247">
-        <v>33.772426439999997</v>
+        <v>43.073865949999998</v>
       </c>
       <c r="D247" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E247" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F247" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="G247" t="s">
         <v>213</v>
       </c>
       <c r="H247">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I247">
-        <v>-84.394836209999994</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="J247">
-        <v>33.772426439999997</v>
+        <v>43.073865949999998</v>
       </c>
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B248">
-        <v>-97.739298629999993</v>
+        <v>-118.4439132</v>
       </c>
       <c r="C248">
-        <v>30.28609522</v>
+        <v>34.068896850000002</v>
       </c>
       <c r="D248" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E248" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F248" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G248" t="s">
         <v>213</v>
       </c>
       <c r="H248">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I248">
-        <v>-97.739298629999993</v>
+        <v>-118.4439132</v>
       </c>
       <c r="J248">
-        <v>30.28609522</v>
+        <v>34.068896850000002</v>
       </c>
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B249">
-        <v>-83.742773619999994</v>
+        <v>-117.2378049</v>
       </c>
       <c r="C249">
-        <v>42.275929130000002</v>
+        <v>32.876602779999999</v>
       </c>
       <c r="D249" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="E249" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="G249" t="s">
         <v>213</v>
       </c>
       <c r="H249">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I249">
-        <v>-83.742773619999994</v>
+        <v>-117.2378049</v>
       </c>
       <c r="J249">
-        <v>42.275929130000002</v>
+        <v>32.876602779999999</v>
       </c>
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B250">
-        <v>-118.4439132</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="C250">
-        <v>34.068896850000002</v>
+        <v>42.374479669999999</v>
       </c>
       <c r="D250" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E250" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F250" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G250" t="s">
         <v>213</v>
       </c>
       <c r="H250">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I250">
-        <v>-118.4439132</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="J250">
-        <v>34.068896850000002</v>
+        <v>42.374479669999999</v>
       </c>
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="B251">
-        <v>-71.118313610000001</v>
+        <v>-76.944723269999997</v>
       </c>
       <c r="C251">
-        <v>42.374479669999999</v>
+        <v>38.988185809999997</v>
       </c>
       <c r="D251" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="E251" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F251" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G251" t="s">
         <v>213</v>
@@ -9543,42 +9545,42 @@
         <v>16</v>
       </c>
       <c r="I251">
-        <v>-71.118313610000001</v>
+        <v>-76.944723269999997</v>
       </c>
       <c r="J251">
-        <v>42.374479669999999</v>
+        <v>38.988185809999997</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="B252">
-        <v>-76.944723269999997</v>
+        <v>-75.193911779999993</v>
       </c>
       <c r="C252">
-        <v>38.988185809999997</v>
+        <v>39.950937060000001</v>
       </c>
       <c r="D252" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="E252" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="F252" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="G252" t="s">
         <v>213</v>
       </c>
       <c r="H252">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I252">
-        <v>-76.944723269999997</v>
+        <v>-75.193911779999993</v>
       </c>
       <c r="J252">
-        <v>38.988185809999997</v>
+        <v>39.950937060000001</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -9795,502 +9797,502 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B260">
-        <v>-73.961886440000001</v>
+        <v>-71.0921156</v>
       </c>
       <c r="C260">
-        <v>40.808294279999998</v>
+        <v>42.360103670000001</v>
       </c>
       <c r="D260" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E260" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F260" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="G260" t="s">
         <v>217</v>
       </c>
       <c r="H260">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>-73.961886440000001</v>
+        <v>-71.0921156</v>
       </c>
       <c r="J260">
-        <v>40.808294279999998</v>
+        <v>42.360103670000001</v>
       </c>
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B261">
-        <v>-97.739298629999993</v>
+        <v>-122.2604762</v>
       </c>
       <c r="C261">
-        <v>30.28609522</v>
+        <v>37.871922959999999</v>
       </c>
       <c r="D261" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E261" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F261" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G261" t="s">
         <v>217</v>
       </c>
       <c r="H261">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I261">
-        <v>-97.739298629999993</v>
+        <v>-122.2604762</v>
       </c>
       <c r="J261">
-        <v>30.28609522</v>
+        <v>37.871922959999999</v>
       </c>
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="B262">
-        <v>-110.9508257</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="C262">
-        <v>32.232677000000002</v>
+        <v>40.808294279999998</v>
       </c>
       <c r="D262" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="E262" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="F262" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="G262" t="s">
         <v>217</v>
       </c>
       <c r="H262">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I262">
-        <v>-110.9508257</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="J262">
-        <v>32.232677000000002</v>
+        <v>40.808294279999998</v>
       </c>
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="B263">
-        <v>-83.742773619999994</v>
+        <v>-77.861646680000007</v>
       </c>
       <c r="C263">
-        <v>42.275929130000002</v>
+        <v>40.800740130000001</v>
       </c>
       <c r="D263" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="E263" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="G263" t="s">
         <v>217</v>
       </c>
       <c r="H263">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I263">
-        <v>-83.742773619999994</v>
+        <v>-77.861646680000007</v>
       </c>
       <c r="J263">
-        <v>42.275929130000002</v>
+        <v>40.800740130000001</v>
       </c>
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B264">
-        <v>-118.4439132</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="C264">
-        <v>34.068896850000002</v>
+        <v>30.28609522</v>
       </c>
       <c r="D264" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E264" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F264" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G264" t="s">
         <v>217</v>
       </c>
       <c r="H264">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I264">
-        <v>-118.4439132</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="J264">
-        <v>34.068896850000002</v>
+        <v>30.28609522</v>
       </c>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="B265">
-        <v>-111.934394</v>
+        <v>-110.9508257</v>
       </c>
       <c r="C265">
-        <v>33.417726119999998</v>
+        <v>32.232677000000002</v>
       </c>
       <c r="D265" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="E265" t="s">
         <v>88</v>
       </c>
       <c r="F265" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="G265" t="s">
         <v>217</v>
       </c>
       <c r="H265">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I265">
-        <v>-111.934394</v>
+        <v>-110.9508257</v>
       </c>
       <c r="J265">
-        <v>33.417726119999998</v>
+        <v>32.232677000000002</v>
       </c>
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="B266">
-        <v>-117.2378049</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="C266">
-        <v>32.876602779999999</v>
+        <v>42.374479669999999</v>
       </c>
       <c r="D266" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E266" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F266" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="G266" t="s">
         <v>217</v>
       </c>
       <c r="H266">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I266">
-        <v>-117.2378049</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="J266">
-        <v>32.876602779999999</v>
+        <v>42.374479669999999</v>
       </c>
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B267">
-        <v>-76.483086360000001</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="C267">
-        <v>42.447208490000001</v>
+        <v>42.275929130000002</v>
       </c>
       <c r="D267" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E267" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F267" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G267" t="s">
         <v>217</v>
       </c>
       <c r="H267">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I267">
-        <v>-76.483086360000001</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="J267">
-        <v>42.447208490000001</v>
+        <v>42.275929130000002</v>
       </c>
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B268">
-        <v>-71.0921156</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="C268">
-        <v>42.360103670000001</v>
+        <v>40.348740159999998</v>
       </c>
       <c r="D268" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="E268" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="F268" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G268" t="s">
         <v>217</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I268">
-        <v>-71.0921156</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="J268">
-        <v>42.360103670000001</v>
+        <v>40.348740159999998</v>
       </c>
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B269">
-        <v>-122.2604762</v>
+        <v>-122.31312990000001</v>
       </c>
       <c r="C269">
-        <v>37.871922959999999</v>
+        <v>47.656218619999997</v>
       </c>
       <c r="D269" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="E269" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F269" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="G269" t="s">
         <v>217</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I269">
-        <v>-122.2604762</v>
+        <v>-122.31312990000001</v>
       </c>
       <c r="J269">
-        <v>37.871922959999999</v>
+        <v>47.656218619999997</v>
       </c>
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="B270">
-        <v>-77.861646680000007</v>
+        <v>-118.4439132</v>
       </c>
       <c r="C270">
-        <v>40.800740130000001</v>
+        <v>34.068896850000002</v>
       </c>
       <c r="D270" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="E270" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F270" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="G270" t="s">
         <v>217</v>
       </c>
       <c r="H270">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I270">
-        <v>-77.861646680000007</v>
+        <v>-118.4439132</v>
       </c>
       <c r="J270">
-        <v>40.800740130000001</v>
+        <v>34.068896850000002</v>
       </c>
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B271">
-        <v>-71.118313610000001</v>
+        <v>-72.926689139999993</v>
       </c>
       <c r="C271">
-        <v>42.374479669999999</v>
+        <v>41.311166409999998</v>
       </c>
       <c r="D271" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E271" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F271" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G271" t="s">
         <v>217</v>
       </c>
       <c r="H271">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I271">
-        <v>-71.118313610000001</v>
+        <v>-72.926689139999993</v>
       </c>
       <c r="J271">
-        <v>42.374479669999999</v>
+        <v>41.311166409999998</v>
       </c>
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="B272">
-        <v>-74.659366640000002</v>
+        <v>-111.934394</v>
       </c>
       <c r="C272">
-        <v>40.348740159999998</v>
+        <v>33.417726119999998</v>
       </c>
       <c r="D272" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="E272" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F272" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="G272" t="s">
         <v>217</v>
       </c>
       <c r="H272">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I272">
-        <v>-74.659366640000002</v>
+        <v>-111.934394</v>
       </c>
       <c r="J272">
-        <v>40.348740159999998</v>
+        <v>33.417726119999998</v>
       </c>
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B273">
-        <v>-122.31312990000001</v>
+        <v>-117.2378049</v>
       </c>
       <c r="C273">
-        <v>47.656218619999997</v>
+        <v>32.876602779999999</v>
       </c>
       <c r="D273" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E273" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="F273" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G273" t="s">
         <v>217</v>
       </c>
       <c r="H273">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I273">
-        <v>-122.31312990000001</v>
+        <v>-117.2378049</v>
       </c>
       <c r="J273">
-        <v>47.656218619999997</v>
+        <v>32.876602779999999</v>
       </c>
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="B274">
-        <v>-72.926689139999993</v>
+        <v>-71.403850669999997</v>
       </c>
       <c r="C274">
-        <v>41.311166409999998</v>
+        <v>41.826178560000002</v>
       </c>
       <c r="D274" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="E274" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F274" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="G274" t="s">
         <v>217</v>
       </c>
       <c r="H274">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I274">
-        <v>-72.926689139999993</v>
+        <v>-71.403850669999997</v>
       </c>
       <c r="J274">
-        <v>41.311166409999998</v>
+        <v>41.826178560000002</v>
       </c>
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="B275">
-        <v>-71.403850669999997</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="C275">
-        <v>41.826178560000002</v>
+        <v>43.073865949999998</v>
       </c>
       <c r="D275" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="E275" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="F275" t="s">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="G275" t="s">
         <v>217</v>
@@ -10299,42 +10301,42 @@
         <v>15</v>
       </c>
       <c r="I275">
-        <v>-71.403850669999997</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="J275">
-        <v>41.826178560000002</v>
+        <v>43.073865949999998</v>
       </c>
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B276">
-        <v>-89.405362400000001</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="C276">
-        <v>43.073865949999998</v>
+        <v>42.447208490000001</v>
       </c>
       <c r="D276" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E276" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F276" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G276" t="s">
         <v>217</v>
       </c>
       <c r="H276">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I276">
-        <v>-89.405362400000001</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="J276">
-        <v>43.073865949999998</v>
+        <v>42.447208490000001</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -10554,470 +10556,470 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B284">
-        <v>-73.961886440000001</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="C284">
-        <v>40.808294279999998</v>
+        <v>42.374479669999999</v>
       </c>
       <c r="D284" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E284" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F284" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G284" t="s">
         <v>227</v>
       </c>
       <c r="H284">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I284">
-        <v>-73.961886440000001</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="J284">
-        <v>40.808294279999998</v>
+        <v>42.374479669999999</v>
       </c>
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B285">
-        <v>-118.12575219999999</v>
+        <v>-122.1644471</v>
       </c>
       <c r="C285">
-        <v>34.139279870000003</v>
+        <v>37.429536929999998</v>
       </c>
       <c r="D285" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="E285" t="s">
         <v>16</v>
       </c>
       <c r="F285" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="G285" t="s">
         <v>227</v>
       </c>
       <c r="H285">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I285">
-        <v>-118.12575219999999</v>
+        <v>-122.1644471</v>
       </c>
       <c r="J285">
-        <v>34.139279870000003</v>
+        <v>37.429536929999998</v>
       </c>
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B286">
-        <v>-72.926689139999993</v>
+        <v>-87.60120173</v>
       </c>
       <c r="C286">
-        <v>41.311166409999998</v>
+        <v>41.789177840000001</v>
       </c>
       <c r="D286" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E286" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F286" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G286" t="s">
         <v>227</v>
       </c>
       <c r="H286">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I286">
-        <v>-72.926689139999993</v>
+        <v>-87.60120173</v>
       </c>
       <c r="J286">
-        <v>41.311166409999998</v>
+        <v>41.789177840000001</v>
       </c>
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B287">
-        <v>-76.483086360000001</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="C287">
-        <v>42.447208490000001</v>
+        <v>40.808294279999998</v>
       </c>
       <c r="D287" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E287" t="s">
         <v>25</v>
       </c>
       <c r="F287" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G287" t="s">
         <v>227</v>
       </c>
       <c r="H287">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I287">
-        <v>-76.483086360000001</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="J287">
-        <v>42.447208490000001</v>
+        <v>40.808294279999998</v>
       </c>
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B288">
-        <v>-97.739298629999993</v>
+        <v>-118.4439132</v>
       </c>
       <c r="C288">
-        <v>30.28609522</v>
+        <v>34.068896850000002</v>
       </c>
       <c r="D288" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E288" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F288" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
         <v>227</v>
       </c>
       <c r="H288">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I288">
-        <v>-97.739298629999993</v>
+        <v>-118.4439132</v>
       </c>
       <c r="J288">
-        <v>30.28609522</v>
+        <v>34.068896850000002</v>
       </c>
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B289">
-        <v>-75.193911779999993</v>
+        <v>-118.12575219999999</v>
       </c>
       <c r="C289">
-        <v>39.950937060000001</v>
+        <v>34.139279870000003</v>
       </c>
       <c r="D289" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="E289" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F289" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="G289" t="s">
         <v>227</v>
       </c>
       <c r="H289">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I289">
-        <v>-75.193911779999993</v>
+        <v>-118.12575219999999</v>
       </c>
       <c r="J289">
-        <v>39.950937060000001</v>
+        <v>34.139279870000003</v>
       </c>
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="B290">
-        <v>-117.2378049</v>
+        <v>-72.926689139999993</v>
       </c>
       <c r="C290">
-        <v>32.876602779999999</v>
+        <v>41.311166409999998</v>
       </c>
       <c r="D290" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="E290" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F290" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G290" t="s">
         <v>227</v>
       </c>
       <c r="H290">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I290">
-        <v>-117.2378049</v>
+        <v>-72.926689139999993</v>
       </c>
       <c r="J290">
-        <v>32.876602779999999</v>
+        <v>41.311166409999998</v>
       </c>
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B291">
-        <v>-71.118313610000001</v>
+        <v>-73.99726545</v>
       </c>
       <c r="C291">
-        <v>42.374479669999999</v>
+        <v>40.729460260000003</v>
       </c>
       <c r="D291" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E291" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F291" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G291" t="s">
         <v>227</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I291">
-        <v>-71.118313610000001</v>
+        <v>-73.99726545</v>
       </c>
       <c r="J291">
-        <v>42.374479669999999</v>
+        <v>40.729460260000003</v>
       </c>
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B292">
-        <v>-122.1644471</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="C292">
-        <v>37.429536929999998</v>
+        <v>42.275929130000002</v>
       </c>
       <c r="D292" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E292" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F292" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G292" t="s">
         <v>227</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I292">
-        <v>-122.1644471</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="J292">
-        <v>37.429536929999998</v>
+        <v>42.275929130000002</v>
       </c>
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B293">
-        <v>-87.60120173</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="C293">
-        <v>41.789177840000001</v>
+        <v>42.447208490000001</v>
       </c>
       <c r="D293" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E293" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F293" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G293" t="s">
         <v>227</v>
       </c>
       <c r="H293">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I293">
-        <v>-87.60120173</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="J293">
-        <v>41.789177840000001</v>
+        <v>42.447208490000001</v>
       </c>
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B294">
-        <v>-118.4439132</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="C294">
-        <v>34.068896850000002</v>
+        <v>30.28609522</v>
       </c>
       <c r="D294" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E294" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F294" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G294" t="s">
         <v>227</v>
       </c>
       <c r="H294">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I294">
-        <v>-118.4439132</v>
+        <v>-97.739298629999993</v>
       </c>
       <c r="J294">
-        <v>34.068896850000002</v>
+        <v>30.28609522</v>
       </c>
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="B295">
-        <v>-73.99726545</v>
+        <v>-71.403850669999997</v>
       </c>
       <c r="C295">
-        <v>40.729460260000003</v>
+        <v>41.826178560000002</v>
       </c>
       <c r="D295" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="E295" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="F295" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="G295" t="s">
         <v>227</v>
       </c>
       <c r="H295">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I295">
-        <v>-73.99726545</v>
+        <v>-71.403850669999997</v>
       </c>
       <c r="J295">
-        <v>40.729460260000003</v>
+        <v>41.826178560000002</v>
       </c>
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B296">
-        <v>-83.742773619999994</v>
+        <v>-75.193911779999993</v>
       </c>
       <c r="C296">
-        <v>42.275929130000002</v>
+        <v>39.950937060000001</v>
       </c>
       <c r="D296" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E296" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F296" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G296" t="s">
         <v>227</v>
       </c>
       <c r="H296">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I296">
-        <v>-83.742773619999994</v>
+        <v>-75.193911779999993</v>
       </c>
       <c r="J296">
-        <v>42.275929130000002</v>
+        <v>39.950937060000001</v>
       </c>
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="B297">
-        <v>-71.403850669999997</v>
+        <v>-78.937626710000004</v>
       </c>
       <c r="C297">
-        <v>41.826178560000002</v>
+        <v>36.001142119999997</v>
       </c>
       <c r="D297" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="E297" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="F297" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="G297" t="s">
         <v>227</v>
       </c>
       <c r="H297">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I297">
-        <v>-71.403850669999997</v>
+        <v>-78.937626710000004</v>
       </c>
       <c r="J297">
-        <v>41.826178560000002</v>
+        <v>36.001142119999997</v>
       </c>
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B298">
-        <v>-78.937626710000004</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="C298">
-        <v>36.001142119999997</v>
+        <v>43.073865949999998</v>
       </c>
       <c r="D298" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E298" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F298" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="G298" t="s">
         <v>227</v>
@@ -11026,42 +11028,42 @@
         <v>16</v>
       </c>
       <c r="I298">
-        <v>-78.937626710000004</v>
+        <v>-89.405362400000001</v>
       </c>
       <c r="J298">
-        <v>36.001142119999997</v>
+        <v>43.073865949999998</v>
       </c>
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B299">
-        <v>-89.405362400000001</v>
+        <v>-117.2378049</v>
       </c>
       <c r="C299">
-        <v>43.073865949999998</v>
+        <v>32.876602779999999</v>
       </c>
       <c r="D299" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E299" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F299" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="G299" t="s">
         <v>227</v>
       </c>
       <c r="H299">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I299">
-        <v>-89.405362400000001</v>
+        <v>-117.2378049</v>
       </c>
       <c r="J299">
-        <v>43.073865949999998</v>
+        <v>32.876602779999999</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -11159,54 +11161,54 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B303">
-        <v>-118.12575219999999</v>
+        <v>-122.1644471</v>
       </c>
       <c r="C303">
-        <v>34.139279870000003</v>
+        <v>37.429536929999998</v>
       </c>
       <c r="D303" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="E303" t="s">
         <v>16</v>
       </c>
       <c r="F303" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="G303" t="s">
         <v>228</v>
       </c>
       <c r="H303">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>-118.12575219999999</v>
+        <v>-122.1644471</v>
       </c>
       <c r="J303">
-        <v>34.139279870000003</v>
+        <v>37.429536929999998</v>
       </c>
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B304">
-        <v>-74.659366640000002</v>
+        <v>-118.12575219999999</v>
       </c>
       <c r="C304">
-        <v>40.348740159999998</v>
+        <v>34.139279870000003</v>
       </c>
       <c r="D304" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E304" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="F304" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G304" t="s">
         <v>228</v>
@@ -11215,490 +11217,490 @@
         <v>3</v>
       </c>
       <c r="I304">
-        <v>-74.659366640000002</v>
+        <v>-118.12575219999999</v>
       </c>
       <c r="J304">
-        <v>40.348740159999998</v>
+        <v>34.139279870000003</v>
       </c>
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B305">
-        <v>-76.483086360000001</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="C305">
-        <v>42.447208490000001</v>
+        <v>40.348740159999998</v>
       </c>
       <c r="D305" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="E305" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="F305" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="G305" t="s">
         <v>228</v>
       </c>
       <c r="H305">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I305">
-        <v>-76.483086360000001</v>
+        <v>-74.659366640000002</v>
       </c>
       <c r="J305">
-        <v>42.447208490000001</v>
+        <v>40.348740159999998</v>
       </c>
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="B306">
-        <v>-88.230314759999999</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="C306">
-        <v>40.10887151</v>
+        <v>42.374479669999999</v>
       </c>
       <c r="D306" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E306" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F306" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="G306" t="s">
         <v>228</v>
       </c>
       <c r="H306">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I306">
-        <v>-88.230314759999999</v>
+        <v>-71.118313610000001</v>
       </c>
       <c r="J306">
-        <v>40.10887151</v>
+        <v>42.374479669999999</v>
       </c>
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="B307">
-        <v>-119.8464385</v>
+        <v>-122.2604762</v>
       </c>
       <c r="C307">
-        <v>34.416301799999999</v>
+        <v>37.871922959999999</v>
       </c>
       <c r="D307" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="E307" t="s">
         <v>16</v>
       </c>
       <c r="F307" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="G307" t="s">
         <v>228</v>
       </c>
       <c r="H307">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I307">
-        <v>-119.8464385</v>
+        <v>-122.2604762</v>
       </c>
       <c r="J307">
-        <v>34.416301799999999</v>
+        <v>37.871922959999999</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B308">
-        <v>-83.742773619999994</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="C308">
-        <v>42.275929130000002</v>
+        <v>42.447208490000001</v>
       </c>
       <c r="D308" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E308" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F308" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G308" t="s">
         <v>228</v>
       </c>
       <c r="H308">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I308">
-        <v>-83.742773619999994</v>
+        <v>-76.483086360000001</v>
       </c>
       <c r="J308">
-        <v>42.275929130000002</v>
+        <v>42.447208490000001</v>
       </c>
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="B309">
-        <v>-76.944723269999997</v>
+        <v>-87.60120173</v>
       </c>
       <c r="C309">
-        <v>38.988185809999997</v>
+        <v>41.789177840000001</v>
       </c>
       <c r="D309" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="E309" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="F309" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="G309" t="s">
         <v>228</v>
       </c>
       <c r="H309">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I309">
-        <v>-76.944723269999997</v>
+        <v>-87.60120173</v>
       </c>
       <c r="J309">
-        <v>38.988185809999997</v>
+        <v>41.789177840000001</v>
       </c>
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B310">
-        <v>-76.621597190000003</v>
+        <v>-88.230314759999999</v>
       </c>
       <c r="C310">
-        <v>39.328984890000001</v>
+        <v>40.10887151</v>
       </c>
       <c r="D310" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E310" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="F310" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="G310" t="s">
         <v>228</v>
       </c>
       <c r="H310">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I310">
-        <v>-76.621597190000003</v>
+        <v>-88.230314759999999</v>
       </c>
       <c r="J310">
-        <v>39.328984890000001</v>
+        <v>40.10887151</v>
       </c>
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="B311">
-        <v>-117.2378049</v>
+        <v>-119.8464385</v>
       </c>
       <c r="C311">
-        <v>32.876602779999999</v>
+        <v>34.416301799999999</v>
       </c>
       <c r="D311" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="E311" t="s">
         <v>16</v>
       </c>
       <c r="F311" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="G311" t="s">
         <v>228</v>
       </c>
       <c r="H311">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I311">
-        <v>-117.2378049</v>
+        <v>-119.8464385</v>
       </c>
       <c r="J311">
-        <v>32.876602779999999</v>
+        <v>34.416301799999999</v>
       </c>
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B312">
-        <v>-122.1644471</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="C312">
-        <v>37.429536929999998</v>
+        <v>40.808294279999998</v>
       </c>
       <c r="D312" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E312" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F312" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G312" t="s">
         <v>228</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I312">
-        <v>-122.1644471</v>
+        <v>-73.961886440000001</v>
       </c>
       <c r="J312">
-        <v>37.429536929999998</v>
+        <v>40.808294279999998</v>
       </c>
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B313">
-        <v>-71.118313610000001</v>
+        <v>-72.926689139999993</v>
       </c>
       <c r="C313">
-        <v>42.374479669999999</v>
+        <v>41.311166409999998</v>
       </c>
       <c r="D313" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E313" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F313" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G313" t="s">
         <v>228</v>
       </c>
       <c r="H313">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I313">
-        <v>-71.118313610000001</v>
+        <v>-72.926689139999993</v>
       </c>
       <c r="J313">
-        <v>42.374479669999999</v>
+        <v>41.311166409999998</v>
       </c>
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B314">
-        <v>-122.2604762</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="C314">
-        <v>37.871922959999999</v>
+        <v>42.275929130000002</v>
       </c>
       <c r="D314" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E314" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F314" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G314" t="s">
         <v>228</v>
       </c>
       <c r="H314">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I314">
-        <v>-122.2604762</v>
+        <v>-83.742773619999994</v>
       </c>
       <c r="J314">
-        <v>37.871922959999999</v>
+        <v>42.275929130000002</v>
       </c>
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="B315">
-        <v>-87.60120173</v>
+        <v>-76.944723269999997</v>
       </c>
       <c r="C315">
-        <v>41.789177840000001</v>
+        <v>38.988185809999997</v>
       </c>
       <c r="D315" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="E315" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F315" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="G315" t="s">
         <v>228</v>
       </c>
       <c r="H315">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I315">
-        <v>-87.60120173</v>
+        <v>-76.944723269999997</v>
       </c>
       <c r="J315">
-        <v>41.789177840000001</v>
+        <v>38.988185809999997</v>
       </c>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="B316">
-        <v>-73.961886440000001</v>
+        <v>-105.2708332</v>
       </c>
       <c r="C316">
-        <v>40.808294279999998</v>
+        <v>40.008787439999999</v>
       </c>
       <c r="D316" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="E316" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="F316" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="G316" t="s">
         <v>228</v>
       </c>
       <c r="H316">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I316">
-        <v>-73.961886440000001</v>
+        <v>-105.2708332</v>
       </c>
       <c r="J316">
-        <v>40.808294279999998</v>
+        <v>40.008787439999999</v>
       </c>
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B317">
-        <v>-72.926689139999993</v>
+        <v>-75.193911779999993</v>
       </c>
       <c r="C317">
-        <v>41.311166409999998</v>
+        <v>39.950937060000001</v>
       </c>
       <c r="D317" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E317" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F317" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G317" t="s">
         <v>228</v>
       </c>
       <c r="H317">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I317">
-        <v>-72.926689139999993</v>
+        <v>-75.193911779999993</v>
       </c>
       <c r="J317">
-        <v>41.311166409999998</v>
+        <v>39.950937060000001</v>
       </c>
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="B318">
-        <v>-105.2708332</v>
+        <v>-76.621597190000003</v>
       </c>
       <c r="C318">
-        <v>40.008787439999999</v>
+        <v>39.328984890000001</v>
       </c>
       <c r="D318" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="E318" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="F318" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="G318" t="s">
         <v>228</v>
       </c>
       <c r="H318">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I318">
-        <v>-105.2708332</v>
+        <v>-76.621597190000003</v>
       </c>
       <c r="J318">
-        <v>40.008787439999999</v>
+        <v>39.328984890000001</v>
       </c>
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="B319">
-        <v>-75.193911779999993</v>
+        <v>-117.2378049</v>
       </c>
       <c r="C319">
-        <v>39.950937060000001</v>
+        <v>32.876602779999999</v>
       </c>
       <c r="D319" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E319" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F319" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="G319" t="s">
         <v>228</v>
       </c>
       <c r="H319">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I319">
-        <v>-75.193911779999993</v>
+        <v>-117.2378049</v>
       </c>
       <c r="J319">
-        <v>39.950937060000001</v>
+        <v>32.876602779999999</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -11795,6 +11797,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A302:J322">
+    <sortCondition ref="H302:H322"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>